--- a/prediction analysis/timing and SNR_v3.xlsx
+++ b/prediction analysis/timing and SNR_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\prediction analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B3DC1-4141-4195-B07A-C2C8E50AF30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF906C-47F4-486F-82C7-942346E3B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="4" r:id="rId1"/>
@@ -5052,7 +5052,7 @@
   <dimension ref="B1:R12"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5062,6 +5062,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
@@ -5411,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
